--- a/refs/litreview/preseason_review_imc.xlsx
+++ b/refs/litreview/preseason_review_imc.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\decsens\refs\litreview\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="0" windowWidth="23700" windowHeight="22500" tabRatio="500"/>
+    <workbookView xWindow="19515" yWindow="0" windowWidth="23700" windowHeight="22500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="senswindows" sheetId="5" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
   <si>
     <t>Search was: You searched for: TOPIC: (preseason  OR pre-season) AND TOPIC: (phenolog*)
 Timespan: All years. Indexes: SCI-EXPANDED, SSCI, A&amp;HCI, CPCI-S, CPCI-SSH, BKCI-S, BKCI-SSH, ESCI, CCR-EXPANDED, IC.</t>
@@ -387,12 +392,69 @@
   </si>
   <si>
     <t>Nature</t>
+  </si>
+  <si>
+    <t>2-mo moving window with the later month containing the 27-year average (1982–2008) of spring phenological date for each pixel</t>
+  </si>
+  <si>
+    <t>They calculate the optimal preseason length for each species across years at both low- and high-elevation sites, as the period before themean leaf unfolding across the low- and high-elevation phenology sites, for which the correlation coefficient between leaf-out and air temperature was highest with 5-d steps</t>
+  </si>
+  <si>
+    <t>The preseason climate is calculated in the period preceding greenup from 15 to 120 days with an increment of 3 days</t>
+  </si>
+  <si>
+    <t>?predefined</t>
+  </si>
+  <si>
+    <t>I had a hard time finding what sensitivity window is used</t>
+  </si>
+  <si>
+    <t>The start of the growing season was calculated from the date when 50% of the seedlings at a site had broken dormancy while the end of the growing season was arbitrarily set as September 30th.</t>
+  </si>
+  <si>
+    <t>sliding windows: "the final model included two sliding windows during which mean temperatures predict phenological response...The time window immediately preceding the event (the forcing window) was identical to the best performing temp model for each species."</t>
+  </si>
+  <si>
+    <t>highest Pearson’s correlation with mean temperatures of one month, two months, and three months before the average onset dates</t>
+  </si>
+  <si>
+    <t>The sens-window was defined as either average May–June, June, June–July, or June– August mean monthly temperatures per year, specified separately for each species on the basis of the average time of that phenological event over the period observed across all sites</t>
+  </si>
+  <si>
+    <t>not sure if this would count as predefined, as it changes for species and years</t>
+  </si>
+  <si>
+    <t>I can’t find a sensitivity window nor how was it chosen</t>
+  </si>
+  <si>
+    <t>I don't find a sens_window</t>
+  </si>
+  <si>
+    <t>2-mo prior to phenological event</t>
+  </si>
+  <si>
+    <t>45 or 90 days</t>
+  </si>
+  <si>
+    <t>I can't access the article</t>
+  </si>
+  <si>
+    <t>predefined seasonal windows: spring (march-may), winter (December–February), autumn (September–November) and summer (June–August)</t>
+  </si>
+  <si>
+    <t>30 day prior to phenological event</t>
+  </si>
+  <si>
+    <t>fixed annual (330-440 days) and monthly (30-40 days) temporal bins</t>
+  </si>
+  <si>
+    <t>either May average temperature, or GDD from Jan 1st until May</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -541,7 +603,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,6 +611,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -962,18 +1027,18 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+    <col min="8" max="8" width="31.125" customWidth="1"/>
+    <col min="9" max="9" width="29.875" customWidth="1"/>
     <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1005,7 +1070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1031,7 +1096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1054,7 +1119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1070,8 +1135,14 @@
       <c r="E4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1087,8 +1158,14 @@
       <c r="E5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -1104,8 +1181,14 @@
       <c r="E6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1121,8 +1204,14 @@
       <c r="E7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -1138,8 +1227,14 @@
       <c r="E8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1155,8 +1250,14 @@
       <c r="E9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -1172,8 +1273,17 @@
       <c r="E10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -1189,8 +1299,14 @@
       <c r="E11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1206,8 +1322,14 @@
       <c r="E12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -1223,8 +1345,14 @@
       <c r="E13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -1240,8 +1368,14 @@
       <c r="E14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1257,8 +1391,11 @@
       <c r="E15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -1274,8 +1411,14 @@
       <c r="E16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -1291,8 +1434,14 @@
       <c r="E17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
@@ -1308,8 +1457,14 @@
       <c r="E18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
@@ -1325,8 +1480,14 @@
       <c r="E19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1342,10 +1503,16 @@
       <c r="E20" t="s">
         <v>84</v>
       </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1359,35 +1526,35 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:G68"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1451,7 +1618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1459,12 +1626,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1472,7 +1639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>24</v>
       </c>
@@ -1480,7 +1647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>25</v>
       </c>
@@ -1488,27 +1655,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1524,7 +1691,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -1532,7 +1699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>28</v>
       </c>
@@ -1540,7 +1707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
@@ -1556,7 +1723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
@@ -1564,7 +1731,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
@@ -1572,7 +1739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1580,7 +1747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
@@ -1588,45 +1755,45 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -1634,37 +1801,37 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
